--- a/report/reliability/by-comb/Ensino Superior-Ciências Sociais Aplicadas.xlsx
+++ b/report/reliability/by-comb/Ensino Superior-Ciências Sociais Aplicadas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.8978151627231719</v>
+        <v>0.8653542324305706</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.8952921748219196</v>
+        <v>0.8631156920503432</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.942653772598856</v>
+        <v>0.9066898986665788</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.33464797994218126</v>
+        <v>0.3266146492706877</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>8.550384589683382</v>
+        <v>6.30543927918881</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.019610219022450432</v>
+        <v>0.02623313335957861</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5960044395116535</v>
+        <v>2.4499274310595065</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6601954985709803</v>
+        <v>0.6730382451127196</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3467992418808259</v>
+        <v>0.3369796308338068</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8912373122613775</v>
+        <v>0.8505390710092613</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8889586528269909</v>
+        <v>0.8491667976626346</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9370688218263264</v>
+        <v>0.8877717366447259</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.333490363816303</v>
+        <v>0.31933585376801144</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>8.005654429263544</v>
+        <v>5.629840012037418</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.0209683553746624</v>
+        <v>0.029595118258195854</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.025789737218744706</v>
+        <v>0.024732520516282414</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3467992418808259</v>
+        <v>0.3384029538454868</v>
       </c>
     </row>
     <row r="12">
@@ -2578,25 +2566,25 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.8857849475748921</v>
+        <v>0.8543844436120257</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.884406222015667</v>
+        <v>0.8532336278625275</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9289738875840128</v>
+        <v>0.8942918840656507</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.32349539645831793</v>
+        <v>0.32635549521092866</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>7.650984658841539</v>
+        <v>5.8135498986329415</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02219995666586171</v>
+        <v>0.02857851081775018</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.024716054169210352</v>
+        <v>0.02294550806041101</v>
       </c>
       <c r="I12" t="n" s="65">
         <v>0.3369796308338068</v>
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.8876338301274264</v>
+        <v>0.8437281744405278</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.8854995655001211</v>
+        <v>0.8443963658047443</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9312933900339944</v>
+        <v>0.883033172564448</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.3258500245715466</v>
+        <v>0.31139693072540703</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>7.733591312276266</v>
+        <v>5.4265851191185766</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.021863282218269442</v>
+        <v>0.030966943921473103</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.02578611718726983</v>
+        <v>0.022499171334714935</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3467992418808259</v>
+        <v>0.32310723390003065</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8893498191167337</v>
+        <v>0.8500763729427354</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8868836324935369</v>
+        <v>0.8482743002339819</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9353822005582846</v>
+        <v>0.8920010492436133</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.3288718302675414</v>
+        <v>0.31782682632300496</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>7.8404536146624695</v>
+        <v>5.590841245366721</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.021281296041845574</v>
+        <v>0.02935652108904141</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.027404324075422017</v>
+        <v>0.025870412525379104</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.33752766945331036</v>
+        <v>0.32310723390003065</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.8994429658597819</v>
+        <v>0.8669837551408375</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.8976871165591638</v>
+        <v>0.8638049049445268</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9410488910660888</v>
+        <v>0.9027421593216453</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.35416006098097497</v>
+        <v>0.345778384919658</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>8.773940156600744</v>
+        <v>6.342408326766052</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.01937038625126028</v>
+        <v>0.025818116016119465</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.02409520301286409</v>
+        <v>0.02489323712494172</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.36886971695891974</v>
+        <v>0.35123312226958847</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8948613375137142</v>
+        <v>0.8591839517292102</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.8914585430735648</v>
+        <v>0.8551702402767447</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.9386507021605867</v>
+        <v>0.8984557245992951</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.3391998516932777</v>
+        <v>0.3297833552150206</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>8.213069626269684</v>
+        <v>5.904658282322831</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.020045029662832007</v>
+        <v>0.027241446153962647</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.028452649072630322</v>
+        <v>0.028156045579223955</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.3576597316424264</v>
+        <v>0.33590802881965587</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8918228110728014</v>
+        <v>0.8621615835445392</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.888749525884506</v>
+        <v>0.8589820470605989</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9341158560740719</v>
+        <v>0.8990270413142202</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.33302001219120997</v>
+        <v>0.3366975912327042</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>7.988725737580725</v>
+        <v>6.091295676584706</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.0207018185038901</v>
+        <v>0.02692753190055927</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.02852077961509106</v>
+        <v>0.027267870251574195</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.34298247687044264</v>
+        <v>0.34679924188082595</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8945389342931018</v>
+        <v>0.8653099177763494</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8910234453158594</v>
+        <v>0.8631484232883778</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.938544341163106</v>
+        <v>0.9048181777263353</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.33819445216400496</v>
+        <v>0.3445197070261204</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>8.176285696482301</v>
+        <v>6.3071865449327715</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.020137259521629324</v>
+        <v>0.02628896017225294</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.028304741540215308</v>
+        <v>0.024876558004594786</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3467992418808259</v>
+        <v>0.3384029538454868</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.8963606296318981</v>
+        <v>0.8547697044912891</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.8935833519798085</v>
+        <v>0.851762135054816</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9385656798258865</v>
+        <v>0.8929204060937032</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3441823584965337</v>
+        <v>0.32378802854510824</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>8.397025922205897</v>
+        <v>5.74591475241353</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.01990636744740583</v>
+        <v>0.028246533768854408</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.02776898973303962</v>
+        <v>0.028024672495206217</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.36365452051823977</v>
+        <v>0.3369796308338068</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.8991782534361997</v>
+        <v>0.8578232057976479</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.8961663674704425</v>
+        <v>0.8542800932340177</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9407816712227081</v>
+        <v>0.8977550365364492</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.3504065669073771</v>
+        <v>0.32820080134168156</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>8.630790868414804</v>
+        <v>5.862480372060223</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.019253785416372182</v>
+        <v>0.027581430680333596</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.025985628130944675</v>
+        <v>0.0283433922365165</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.36886971695891974</v>
+        <v>0.3369796308338068</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8868454387646362</v>
+        <v>0.8472992877253807</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.8843070114778767</v>
+        <v>0.8453815171858711</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9310329973550963</v>
+        <v>0.8903067104232208</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.323283133564599</v>
+        <v>0.3130111377443531</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>7.643566155340315</v>
+        <v>5.467532094478817</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.021792074647156753</v>
+        <v>0.02989270351049548</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.027099359859953015</v>
+        <v>0.026589958703861584</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3384029538454868</v>
+        <v>0.33066794079759254</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8868877721943048</v>
+        <v>0.8609539231361344</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.8847867751373495</v>
+        <v>0.8595577541018513</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9298925655902164</v>
+        <v>0.8968338905533765</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.32431174503778887</v>
+        <v>0.3377616705727804</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>7.679559149499829</v>
+        <v>6.120364628213213</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.021843861631254662</v>
+        <v>0.02726741735200666</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.02497160643349815</v>
+        <v>0.025215333729586606</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3369796308338068</v>
+        <v>0.3384029538454868</v>
       </c>
     </row>
     <row r="23">
@@ -2897,681 +2885,645 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.8910482613813507</v>
+        <v>0.847192329864502</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.8877007495055881</v>
+        <v>0.8444807291469295</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9343548215599207</v>
+        <v>0.8936181403923807</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3306777676208266</v>
+        <v>0.3115346578941615</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>7.9047789330505065</v>
+        <v>5.430071299297485</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.02094194866562027</v>
+        <v>0.02988424249191671</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.02796677059937621</v>
+        <v>0.027588669100175312</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3384029538454868</v>
+        <v>0.3152643974079874</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.8963447479799923</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.8937847043323529</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9372700021341275</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.3446608665874888</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>8.414839865710576</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.019896440862802393</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.027702739733471527</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.3710279952143436</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.8894040303364334</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.8872546538557681</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.9382095255816931</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.32968979797019493</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>7.869545699214297</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.021315887618795493</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.026110138544090063</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3369796308338068</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.8875748050601638</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.8846035629398611</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9371257938236272</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.32391829896050833</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>7.665778818446971</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.021611666248167048</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.028389291693990678</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.32712836895260067</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.8949446235330947</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.892489905636043</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9324077613710005</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.34160313172858775</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>8.301452165176897</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.020195637810578166</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.027172244050387987</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.3482029448723364</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>53.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.7151395376015335</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.675225899375698</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.6675975428773978</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.6214309339012243</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.943396226415094</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.4062374011691712</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>53.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.6536231696504332</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.6172920762730923</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.5957984154792806</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.5587810815435215</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.358490566037736</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.2571998743031079</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>53.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.7792923943190267</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.7407466481084575</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.7451993923601647</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.7084727424764891</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.2452830188679247</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.3142072834011223</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>53.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.7032478227895367</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.6876800581481798</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.6675242176980145</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6377324116787018</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.7358490566037736</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.002898556803966</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>53.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.6535080085185554</v>
+        <v>0.41303162555692763</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6247461776800838</v>
+        <v>0.4569929690213529</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6055558685575354</v>
+        <v>0.403252812321987</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.581831730551154</v>
+        <v>0.31557705136458425</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.358490566037736</v>
+        <v>3.2641509433962264</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.2571998743031079</v>
+        <v>0.9637854731818698</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>53.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.7709153852458791</v>
+        <v>0.5499111132089295</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.7401451643367248</v>
+        <v>0.5890015949554271</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.7442768593141372</v>
+        <v>0.5502660628260043</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.7162937236954615</v>
+        <v>0.4719437214831193</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.2452830188679247</v>
+        <v>2.1320754716981134</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.3142072834011223</v>
+        <v>0.8995241444798339</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>53.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.7413154360129839</v>
+        <v>0.48376215860628025</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.7129593128489013</v>
+        <v>0.5319376936727885</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.7120599179345624</v>
+        <v>0.4882952091036888</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.6761971395066877</v>
+        <v>0.411144740630845</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.943396226415094</v>
+        <v>2.6792452830188678</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.4062374011691712</v>
+        <v>0.7788943076729982</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>53.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6916896884968116</v>
+        <v>0.4176403778103264</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6780704230005037</v>
+        <v>0.4673809671862651</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6642403277225226</v>
+        <v>0.40850865667621744</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.6404995276528066</v>
+        <v>0.33577953328646165</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.7358490566037736</v>
+        <v>1.9811320754716981</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.002898556803966</v>
+        <v>0.8201914888454133</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>53.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.347067069313307</v>
+        <v>0.6306969842442214</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.38609986480371516</v>
+        <v>0.6384816428412763</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.35042324989093154</v>
+        <v>0.6120425159974165</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.28042548654109206</v>
+        <v>0.5497917242011163</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>1.9811320754716981</v>
+        <v>2.509433962264151</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.8201914888454133</v>
+        <v>1.0492239166574129</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>53.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5239794052570127</v>
+        <v>0.605615402369339</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5588260909271351</v>
+        <v>0.6020625749063153</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5318664450037732</v>
+        <v>0.5629072955254343</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4621160620652143</v>
+        <v>0.505094373348276</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1320754716981134</v>
+        <v>2.0377358490566038</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.8995241444798339</v>
+        <v>1.2241522050750595</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>53.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6229115072992601</v>
+        <v>0.7369225693311163</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.630176720768819</v>
+        <v>0.7274244314899773</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6144502762582058</v>
+        <v>0.7110064962699505</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5604747639613394</v>
+        <v>0.668787084968708</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.509433962264151</v>
+        <v>2.8679245283018866</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.0492239166574129</v>
+        <v>1.1272453805807494</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>53.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.573513599110608</v>
+        <v>0.5347860702643108</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.570434141529767</v>
+        <v>0.5231557373924846</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.5420846619554275</v>
+        <v>0.487677343214563</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.49319771212892605</v>
+        <v>0.4401471678615096</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.0377358490566038</v>
+        <v>2.339622641509434</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.2241522050750595</v>
+        <v>1.0550865116993067</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>53.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.46251189565230205</v>
+        <v>0.7421724299395029</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.5012995162509103</v>
+        <v>0.7396099716135207</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.4733440186690768</v>
+        <v>0.7146813167865644</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.40533070665531307</v>
+        <v>0.6800550202057009</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.6792452830188678</v>
+        <v>2.7547169811320753</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.7788943076729982</v>
+        <v>1.0543984865125433</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>53.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.39139506996256784</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.4294366158906371</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.3917860344165035</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.31509579021205164</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.2641509433962264</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>0.9637854731818698</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>53.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.7492679248021774</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.7425958899832078</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.7376613817200605</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.699823221374418</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.8679245283018866</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.1272453805807494</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>53.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.7482900715429939</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.7307198410259614</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.7314384931932298</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.6987203600992151</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>3.0</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>1.126601424298216</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>53.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.6527905196188385</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.6572195954719885</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.6446251503027814</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.6051524554373663</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.849056603773585</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.8637179564376668</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>53.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.4768081953153286</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.4957748009791686</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.4701474497899799</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.4095134473646331</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.7358490566037736</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.923016446978776</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.3584905660377358</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.07547169811320754</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>53.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6873998660211414</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6686264057643027</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.6460013786007264</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.6290123285067795</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.69811320754717</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.119493457918449</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.32075471698113206</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.2830188679245283</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>53.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.7356939543605798</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.7352624550231884</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.7123456500449228</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.687790324815927</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.7547169811320753</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>1.0543984865125433</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.07547169811320754</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.20754716981132076</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.22641509433962265</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>53.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5369325053193844</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5310785184945608</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5187516169381857</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.46485108464491964</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.339622641509434</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.0550865116993067</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.5471698113207547</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.2641509433962264</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.3584905660377358</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.3584905660377358</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.07547169811320754</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.6037735849056604</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.018867924528301886</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.32075471698113206</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.2830188679245283</v>
+        <v>0.49056603773584906</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.16981132075471697</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.16981132075471697</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.05660377358490566</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="G53" t="n" s="114">
         <v>0.0</v>
@@ -3579,19 +3531,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.4716981132075472</v>
+        <v>0.49056603773584906</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.07547169811320754</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.20754716981132076</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.22641509433962265</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="F54" t="n" s="113">
         <v>0.018867924528301886</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.1320754716981132</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.3584905660377358</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.18867924528301888</v>
+        <v>0.41509433962264153</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.07547169811320754</v>
+        <v>0.2641509433962264</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.24528301886792453</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.5471698113207547</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.2641509433962264</v>
+        <v>0.32075471698113206</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.11320754716981132</v>
+        <v>0.32075471698113206</v>
       </c>
       <c r="E56" t="n" s="112">
-        <v>0.05660377358490566</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.018867924528301886</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.24528301886792453</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.6037735849056604</v>
+        <v>0.3018867924528302</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.09433962264150944</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.03773584905660377</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.018867924528301886</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.24528301886792453</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.4716981132075472</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.18867924528301888</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.49056603773584906</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.49056603773584906</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.18867924528301888</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.33962264150943394</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.4716981132075472</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.0</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.3584905660377358</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.3584905660377358</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.18867924528301888</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.41509433962264153</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.2641509433962264</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.4528301886792453</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.1509433962264151</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.2641509433962264</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.11320754716981132</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.2830188679245283</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.5283018867924528</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.0</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.37735849056603776</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.1509433962264151</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.33962264150943394</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.18867924528301888</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.11320754716981132</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.3584905660377358</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.24528301886792453</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.32075471698113206</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.32075471698113206</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.811567559923637</v>
+        <v>0.8046868907431959</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.8123014753260298</v>
+        <v>0.8104113012869619</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.7656428971143189</v>
+        <v>0.743787111983192</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.5905941674886771</v>
+        <v>0.5876048308211924</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>4.327692381903303</v>
+        <v>4.274575999456605</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.04177664161474109</v>
+        <v>0.04497454443269266</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.01858083538534947</v>
+        <v>0.0023800369984928148</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.5315965875663224</v>
+        <v>0.6103797542194245</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.76133427296218</v>
+        <v>0.811567559923637</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7754300626517059</v>
+        <v>0.8123014753260298</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.7025139727582894</v>
+        <v>0.7656428971143188</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.5350967675318854</v>
+        <v>0.5905941674886771</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.4529557776429423</v>
+        <v>4.327692381903303</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.0558960856283798</v>
+        <v>0.04177664161474109</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.004264603515158987</v>
+        <v>0.018580835385349454</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5011912414941614</v>
+        <v>0.5315965875663224</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8046868907431959</v>
+        <v>0.76133427296218</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8104113012869619</v>
+        <v>0.7754300626517059</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.743787111983192</v>
+        <v>0.7025139727582894</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.5876048308211924</v>
+        <v>0.5350967675318854</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>4.274575999456605</v>
+        <v>3.4529557776429423</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.04497454443269266</v>
+        <v>0.0558960856283798</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>0.0023800369984928148</v>
+        <v>0.004264603515158987</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.6103797542194245</v>
+        <v>0.5011912414941614</v>
       </c>
     </row>
     <row r="14">
@@ -4188,7 +3864,7 @@
         <v>0.8320461120116114</v>
       </c>
       <c r="D14" t="n" s="174">
-        <v>0.7902166528802679</v>
+        <v>0.790216652880268</v>
       </c>
       <c r="E14" t="n" s="175">
         <v>0.6228320000632103</v>
@@ -4200,7 +3876,7 @@
         <v>0.04032142811959326</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.015042982932335266</v>
+        <v>0.015042982932335252</v>
       </c>
       <c r="I14" t="n" s="179">
         <v>0.6208381506778303</v>
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>53.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8172522555480554</v>
+        <v>0.846770384443063</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8235385986494447</v>
+        <v>0.8262415256250221</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.736745628548842</v>
+        <v>0.7646215072394722</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.665755456119025</v>
+        <v>0.6904650914437819</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.358490566037736</v>
+        <v>2.943396226415094</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.2571998743031079</v>
+        <v>1.4062374011691712</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>53.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8865654761484553</v>
+        <v>0.8172522555480554</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8737187677315135</v>
+        <v>0.8235385986494447</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.8403599638867365</v>
+        <v>0.736745628548842</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.776323688042263</v>
+        <v>0.665755456119025</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.2452830188679247</v>
+        <v>2.358490566037736</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.3142072834011223</v>
+        <v>1.2571998743031079</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>53.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.846770384443063</v>
+        <v>0.8865654761484553</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.8262415256250221</v>
+        <v>0.8737187677315135</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.7646215072394722</v>
+        <v>0.8403599638867365</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.6904650914437819</v>
+        <v>0.776323688042263</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.943396226415094</v>
+        <v>2.2452830188679247</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.4062374011691712</v>
+        <v>1.3142072834011223</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.7943894873273113</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.6815699263080014</v>
+        <v>0.6815699263080013</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.627080742170293</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.32075471698113206</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.2830188679245283</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.16981132075471697</v>
+        <v>0.18867924528301888</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.16981132075471697</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.05660377358490566</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.4716981132075472</v>
+        <v>0.32075471698113206</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.07547169811320754</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.20754716981132076</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.22641509433962265</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.018867924528301886</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.1320754716981132</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.3584905660377358</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.18867924528301888</v>
+        <v>0.20754716981132076</v>
       </c>
       <c r="E29" t="n" s="226">
-        <v>0.07547169811320754</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.24528301886792453</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.6925078554595444</v>
+        <v>0.7316740483984852</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7053398836294239</v>
+        <v>0.739001306310948</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7118905671835075</v>
+        <v>0.7134405371020874</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.32375231012395467</v>
+        <v>0.3615475516071662</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.393740599567133</v>
+        <v>2.8314368009495783</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.06724713092513965</v>
+        <v>0.05654243547264468</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.024990806437935453</v>
+        <v>0.011007386636169961</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.35827449288826024</v>
+        <v>0.382734052966504</v>
       </c>
     </row>
     <row r="12">
@@ -4662,7 +4338,7 @@
         <v>0.6930894496950382</v>
       </c>
       <c r="D12" t="n" s="288">
-        <v>0.6955952354777349</v>
+        <v>0.695595235477735</v>
       </c>
       <c r="E12" t="n" s="289">
         <v>0.3111314058045343</v>
@@ -4674,10 +4350,10 @@
         <v>0.0712868791578929</v>
       </c>
       <c r="H12" t="n" s="292">
-        <v>0.022611032145483254</v>
+        <v>0.02261103214548325</v>
       </c>
       <c r="I12" t="n" s="293">
-        <v>0.3467992418808259</v>
+        <v>0.34679924188082595</v>
       </c>
     </row>
     <row r="13">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7089448424567015</v>
+        <v>0.7176125848241827</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7300321390622158</v>
+        <v>0.728006221836937</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7178373742692001</v>
+        <v>0.7060778973148583</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.3509986837193993</v>
+        <v>0.34866613946953917</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>2.704144621238659</v>
+        <v>2.6765546872196824</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.06425725317693805</v>
+        <v>0.060847421218907745</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.017803411827260533</v>
+        <v>0.015594593037077954</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.381060943412994</v>
+        <v>0.3821177488884002</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7282089003310042</v>
+        <v>0.6925078554595444</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7386800006740644</v>
+        <v>0.7053398836294239</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7244592961874328</v>
+        <v>0.7118905671835077</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.36116326451530023</v>
+        <v>0.32375231012395467</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>2.8267258632307484</v>
+        <v>2.393740599567133</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.0599750520461008</v>
+        <v>0.06724713092513965</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.013390538662190697</v>
+        <v>0.024990806437935453</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.3637293003053925</v>
+        <v>0.35827449288826024</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.7176125848241827</v>
+        <v>0.7089448424567015</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.728006221836937</v>
+        <v>0.7300321390622158</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.706077897314858</v>
+        <v>0.7178373742692001</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.34866613946953917</v>
+        <v>0.3509986837193993</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>2.6765546872196824</v>
+        <v>2.704144621238659</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.060847421218907745</v>
+        <v>0.06425725317693805</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.015594593037077956</v>
+        <v>0.017803411827260533</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.3821177488884002</v>
+        <v>0.381060943412994</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.7316740483984852</v>
+        <v>0.7282089003310042</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.739001306310948</v>
+        <v>0.7386800006740644</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.7134405371020874</v>
+        <v>0.7244592961874328</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.3615475516071662</v>
+        <v>0.36116326451530023</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>2.8314368009495783</v>
+        <v>2.8267258632307484</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.05654243547264468</v>
+        <v>0.05997505204610078</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.011007386636169963</v>
+        <v>0.013390538662190693</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.38273405296650403</v>
+        <v>0.3637293003053926</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>53.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.6979834999105834</v>
+        <v>0.5988808592306629</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7199932653897932</v>
+        <v>0.6263393470585042</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.632622090768414</v>
+        <v>0.5398268334631436</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.5607093050994826</v>
+        <v>0.3990551557504582</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>1.9811320754716981</v>
+        <v>3.2641509433962264</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.8201914888454133</v>
+        <v>0.9637854731818698</v>
       </c>
     </row>
     <row r="22">
@@ -4895,22 +4571,22 @@
         <v>53.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.6793781039830807</v>
+        <v>0.6109595639580335</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.6524786908721246</v>
+        <v>0.6582585695051941</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.5575878039726236</v>
+        <v>0.5787954343876421</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.48489242348773876</v>
+        <v>0.45867642493837263</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.509433962264151</v>
+        <v>2.6792452830188678</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.0492239166574129</v>
+        <v>0.7788943076729982</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>53.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.6846971181987113</v>
+        <v>0.6979834999105834</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.6272915831206384</v>
+        <v>0.7199932653897932</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.526196734418949</v>
+        <v>0.6326220907684142</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.44947025041370875</v>
+        <v>0.5607093050994826</v>
       </c>
       <c r="G24" t="n" s="317">
-        <v>2.0377358490566038</v>
+        <v>1.9811320754716981</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.2241522050750595</v>
+        <v>0.8201914888454133</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>53.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.6109595639580335</v>
+        <v>0.6793781039830807</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.6582585695051941</v>
+        <v>0.6524786908721246</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.5787954343876421</v>
+        <v>0.5575878039726238</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.45867642493837263</v>
+        <v>0.48489242348773876</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.6792452830188678</v>
+        <v>2.509433962264151</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.7788943076729982</v>
+        <v>1.0492239166574129</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>53.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5988808592306629</v>
+        <v>0.6846971181987113</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.6263393470585042</v>
+        <v>0.6272915831206384</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.5398268334631436</v>
+        <v>0.526196734418949</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.3990551557504582</v>
+        <v>0.44947025041370875</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.2641509433962264</v>
+        <v>2.0377358490566038</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>0.9637854731818698</v>
+        <v>1.2241522050750595</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.24528301886792453</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.6037735849056604</v>
+        <v>0.16981132075471697</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.09433962264150944</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.03773584905660377</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.018867924528301886</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
+        <v>0.05660377358490566</v>
+      </c>
+      <c r="C33" t="n" s="338">
+        <v>0.33962264150943394</v>
+      </c>
+      <c r="D33" t="n" s="339">
+        <v>0.4716981132075472</v>
+      </c>
+      <c r="E33" t="n" s="340">
         <v>0.1320754716981132</v>
       </c>
-      <c r="C33" t="n" s="338">
-        <v>0.49056603773584906</v>
-      </c>
-      <c r="D33" t="n" s="339">
-        <v>0.1320754716981132</v>
-      </c>
-      <c r="E33" t="n" s="340">
-        <v>0.22641509433962265</v>
-      </c>
       <c r="F33" t="n" s="341">
-        <v>0.018867924528301886</v>
+        <v>0.0</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,16 +4777,16 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.49056603773584906</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.18867924528301888</v>
+        <v>0.6037735849056604</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.1320754716981132</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.16981132075471697</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="F34" t="n" s="341">
         <v>0.018867924528301886</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.05660377358490566</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.33962264150943394</v>
+        <v>0.49056603773584906</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.4716981132075472</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.1320754716981132</v>
+        <v>0.22641509433962265</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.0</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.03773584905660377</v>
+        <v>0.49056603773584906</v>
       </c>
       <c r="C36" t="n" s="338">
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="D36" t="n" s="339">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="E36" t="n" s="340">
         <v>0.16981132075471697</v>
       </c>
-      <c r="D36" t="n" s="339">
-        <v>0.3584905660377358</v>
-      </c>
-      <c r="E36" t="n" s="340">
-        <v>0.3584905660377358</v>
-      </c>
       <c r="F36" t="n" s="341">
-        <v>0.07547169811320754</v>
+        <v>0.018867924528301886</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8384664182771777</v>
+        <v>0.7252305382800772</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8362131922703597</v>
+        <v>0.7243965579857774</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.840456153673961</v>
+        <v>0.6434667912079666</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.42175034059787403</v>
+        <v>0.4669890041388533</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>5.10549783503126</v>
+        <v>2.6284017089612206</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.032984466394653855</v>
+        <v>0.06511283027598791</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.8921832884097034</v>
+        <v>2.6540880503144653</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.7433143459780002</v>
+        <v>0.8671652021527065</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.4303772349705375</v>
+        <v>0.4899734924953497</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.7986075513561072</v>
+        <v>0.5585331452750351</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7974200920825553</v>
+        <v>0.5585332309214965</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7932538670765398</v>
+        <v>0.387475620598978</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.3961549378892891</v>
+        <v>0.3874756205989778</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>3.9363236970544957</v>
+        <v>1.26517615830372</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.041971888618965524</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.014405366443795113</v>
-      </c>
+        <v>0.12128024189757648</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.3949775752363092</v>
+        <v>0.3874756205989777</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7990678840203231</v>
+        <v>0.6567103109656303</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.7960641030874048</v>
+        <v>0.6576942408213735</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7764947577671286</v>
+        <v>0.4899734924953496</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.39415368090430436</v>
+        <v>0.4899734924953498</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.9035016156502857</v>
+        <v>1.9213648125568552</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.04146552719089989</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.011185090188720766</v>
-      </c>
+        <v>0.09403279383950222</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.42929250150407877</v>
+        <v>0.4899734924953497</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.8188296872902966</v>
+        <v>0.6862627474505099</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.8152322591608335</v>
+        <v>0.6872487675466494</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.8086786715279695</v>
+        <v>0.5235178993222322</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.42375291513931884</v>
+        <v>0.5235178993222322</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>4.4122001787663985</v>
+        <v>2.197429446258564</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.03775866391458867</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.014197754600019102</v>
-      </c>
+        <v>0.08593123929693627</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.4303772349705375</v>
+        <v>0.5235178993222322</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8438855105224617</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8446863269959547</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.8412925353722577</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.47545951150961646</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>5.438583163080268</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.032888240431697115</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.008883114686101411</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.45740128895636123</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.8057701674847316</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.803491463112306</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.8095169352598295</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.40528331088108943</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>4.088837441049734</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.040317504719318956</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.018302882771171435</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.3949775752363092</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.8139134180486753</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.8108963658529775</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.8181530119844316</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.41680225764562323</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>4.288105670261896</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.038415791193091624</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.019471699767675387</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.42929250150407877</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.8285852445426913</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.8253779995782572</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.8143587614008352</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.44064577021587703</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>4.726655275880614</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.03504629338642064</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.01641512787824089</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.4531729187754073</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>53.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8442179791713249</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8359174362871966</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.716579147526723</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.6084110093353613</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.8679245283018866</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.1272453805807494</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>53.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.7894587052860218</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.7933646055928644</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.6250090218649742</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.5302593534447463</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.339622641509434</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.0550865116993067</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>53.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7747616941722825</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7794383704619605</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.5906001935169738</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.504525510038641</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.7547169811320753</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>1.0543984865125433</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>53.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7990858259603444</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7874112578698553</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7594367787514407</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.6958027760081169</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.8679245283018866</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.1272453805807494</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.18867924528301888</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.09433962264150944</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.41509433962264153</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.2641509433962264</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>53.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.7971904349922807</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.7934497272189234</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.7846382934965912</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.6932091699833852</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>3.0</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>1.126601424298216</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.32075471698113206</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.32075471698113206</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.07547169811320754</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.03773584905660377</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>53.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.688776347990377</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7041388241090092</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.6489888571223164</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.5848923517201389</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.849056603773585</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.8637179564376668</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>53.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.5342973796867483</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.5481225305148916</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.42371961976928446</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.3889724031449562</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.7358490566037736</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.923016446978776</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>53.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.768988360373399</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.7598678684244143</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.7057435084815591</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.6547994334232671</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.69811320754717</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.119493457918449</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>53.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.7262520138294627</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.7251113091753728</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.6529964520266115</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.6059353636998501</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.7547169811320753</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>1.0543984865125433</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>53.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.6536037538907136</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6531673654890572</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5819566248826545</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.5117597069405352</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.339622641509434</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.0550865116993067</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.18867924528301888</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.41509433962264153</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.2641509433962264</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.4528301886792453</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.1509433962264151</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.2641509433962264</v>
-      </c>
-      <c r="F34" t="n" s="455">
+      <c r="B27" t="n" s="451">
         <v>0.11320754716981132</v>
       </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.2830188679245283</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.5283018867924528</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="F35" t="n" s="455">
+      <c r="C27" t="n" s="452">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.3584905660377358</v>
+      </c>
+      <c r="E27" t="n" s="454">
+        <v>0.16981132075471697</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.05660377358490566</v>
       </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.0</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.09433962264150944</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.37735849056603776</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.22641509433962265</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.1509433962264151</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.33962264150943394</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.18867924528301888</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.11320754716981132</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.3018867924528302</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.3584905660377358</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.16981132075471697</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.24528301886792453</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.32075471698113206</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.32075471698113206</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.07547169811320754</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.03773584905660377</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
